--- a/biology/Botanique/Classement_Liv-ex_des_vins_de_Bordeaux/Classement_Liv-ex_des_vins_de_Bordeaux.xlsx
+++ b/biology/Botanique/Classement_Liv-ex_des_vins_de_Bordeaux/Classement_Liv-ex_des_vins_de_Bordeaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification Liv-ex des vins de Bordeaux est un classement des bordeaux les plus chers, en mars 2009. Cette classification est réalisée par le site Liv-ex (London International Vintners Exchange (en)), une bourse d'échange en ligne britannique spécialisée dans la spéculation et la vente des vins[1], dans le but d'actualiser le classement datant de 1855.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification Liv-ex des vins de Bordeaux est un classement des bordeaux les plus chers, en mars 2009. Cette classification est réalisée par le site Liv-ex (London International Vintners Exchange (en)), une bourse d'échange en ligne britannique spécialisée dans la spéculation et la vente des vins, dans le but d'actualiser le classement datant de 1855.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Critères</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Seuls les bordeaux rouges de la rive gauche de la Garonne sont pris en compte, c'est-à-dire les médocs (appellations saint-estèphe, pauillac, saint-julien, margaux et haut-médoc) et les graves (appellation pessac-léognan).
 Les châteaux doivent produire plus de 2 000 caisses pour être sélectionnés (ce qui exclut les vins de garage, aux prix élevés mais loin cependant des premiers grands crus) et ne pas être un second vin (auxquels un autre classement est réservé).
 Le classement est basé uniquement sur les prix (soit le même critère que le classement de 1855) des caisses de douze bouteilles de 75 centilitres, exprimés en livres sterling, calculé en moyenne pour les cinq millésimes de 2003 à 2007, d'après les cotations du site Liv-ex au printemps 2009.
-Les résultats sont publiés le 10 mars 2009 : soixante vins sont classés. les premiers crus dépassent les 2 000 livres sterling la caisse, les deuxième crus sont entre 2 000 et 500, les troisième crus entre 500 et 300, les quatrième crus entre 300 et 250, et les cinquième crus entre 250 et 200 livres[2].
+Les résultats sont publiés le 10 mars 2009 : soixante vins sont classés. les premiers crus dépassent les 2 000 livres sterling la caisse, les deuxième crus sont entre 2 000 et 500, les troisième crus entre 500 et 300, les quatrième crus entre 300 et 250, et les cinquième crus entre 250 et 200 livres.
 </t>
         </is>
       </c>
@@ -547,17 +561,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Premiers crus
-Deuxièmes crus
-Troisièmes crus
-Quatrièmes crus
-Cinquièmes crus
-Gagnants et perdants
-Le château la Mission Haut-Brion fait son entrée non seulement dans le classement, mais surtout parmi les premiers crus. Il y a neuf nouveaux-venus :
+          <t>Gagnants et perdants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château la Mission Haut-Brion fait son entrée non seulement dans le classement, mais surtout parmi les premiers crus. Il y a neuf nouveaux-venus :
 Pour les vins déjà classés en 1855, celui qui obtient la plus forte montée dans le classement est le château Lynch-Bages, qui passe de cinquième cru à deuxième, gagnant 33 places. Les autres principaux gagnants sont les châteaux Clerc-Milon (+28), Pontet-Canet (+25), Palmer (+20), Grand Puy Lacoste (+18), Beychevelle (+13), Cos d'Estournel (+8), Montrose (+7) et Calon-Ségur (+7).
 Il y a des perdants, exclus de ce classement :
-Seconds vins
-Douze seconds vins ont des prix qui leur permettraient de figurer dans le classement :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classement_Liv-ex_des_vins_de_Bordeaux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classement_Liv-ex_des_vins_de_Bordeaux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Listes des crus classés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Seconds vins</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Douze seconds vins ont des prix qui leur permettraient de figurer dans le classement :
 </t>
         </is>
       </c>
